--- a/biology/Médecine/EOS_imaging/EOS_imaging.xlsx
+++ b/biology/Médecine/EOS_imaging/EOS_imaging.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 EOS imaging est un groupe français qui conçoit, développe et commercialise EOS, un dispositif médical d'imagerie destiné aux pathologies ostéo-articulaires et à l’orthopédie, ainsi que les applications associées. Le groupe est coté à la bourse de Paris.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société tire ses origines de l'application à la radiologie de détecteurs initialement conçus pour la physique des particules: les chambres à fils. Elle a développé un produit visant à répondre aux besoins de l’imagerie du squelette : un système capable de produire des images du corps entier, en position fonctionnelle (debout ou assis), en deux et trois dimensions, à l’issue d’un examen rapide et faiblement irradiant.
 La fin des tests cliniques d’un prototype EOS au sein des hôpitaux de Paris et de Bruxelles a lieu en 2004. La première levée de fonds s'effectue en 2005.
@@ -550,11 +564,13 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système d'imagerie EOS permet de réaliser des radiographies basse dose du corps entier en position fonctionnelle, c'est-à-dire debout. Cet équipement bi-plan repose sur le principe d’un balayage du patient par deux pinceaux de rayons X, détectés chacun par un détecteur de type chambre à fils. En 15 à 20 secondes, l’examen EOS réalise deux clichés simultanés à faible dose d’irradiation, l'un de face et l'autre de profil, d’une zone particulière ou du corps entier. 
 Le logiciel en ligne « spineEOS » permet de visualiser en 3D la colonne vertébrale du patient avant l'opération, ainsi que la correction en 3D recommandée par la littérature scientifique. La correction peut être modifiée par le chirurgien. Elle inclut la pose de tiges et de cages inter-somatiques, ainsi que l’exécution d’ostéotomies. L’impact de la stratégie et le calcul de paramètres cliniques clé sont visualisés en temps réel.
-Ce type de logiciel permet d’anticiper, en phase pré-opératoire (avant l'opération), l’équilibre axial et sagittal attendu de patients souffrant de pathologies déformatives ou dégénératives de la colonne vertébrale[1].
+Ce type de logiciel permet d’anticiper, en phase pré-opératoire (avant l'opération), l’équilibre axial et sagittal attendu de patients souffrant de pathologies déformatives ou dégénératives de la colonne vertébrale.
 EOS collabore avec AnatoScope pour proposer des traitements sur mesure aux patients. 
 </t>
         </is>
@@ -584,9 +600,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mise à jour mars 2019[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mise à jour mars 2019.
 </t>
         </is>
       </c>
